--- a/simulation_output.xlsx
+++ b/simulation_output.xlsx
@@ -454,105 +454,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Dist. of Columbia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Maine</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.01</v>
       </c>
       <c r="C5" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>North Dakota</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.01</v>
       </c>
       <c r="C6" t="n">
-        <v>0.51</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0.01</v>
       </c>
       <c r="C7" t="n">
-        <v>0.93</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.02</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C9" t="n">
-        <v>0.28</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
@@ -565,20 +565,20 @@
         <v>0.02</v>
       </c>
       <c r="C10" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
@@ -591,527 +591,527 @@
         <v>0.01</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.01</v>
       </c>
       <c r="C13" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C14" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.02</v>
       </c>
       <c r="C15" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="C16" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.02</v>
       </c>
       <c r="C17" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>New Hampshire</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.01</v>
       </c>
       <c r="C19" t="n">
-        <v>0.61</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Dist. of Columbia</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C20" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C21" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Alabama</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C22" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C23" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C24" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Iowa</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.01</v>
       </c>
       <c r="C25" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0.01</v>
       </c>
       <c r="C30" t="n">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0.02</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alaska</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="C33" t="n">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0.02</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C36" t="n">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C38" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.01</v>
       </c>
       <c r="C39" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0.02</v>
       </c>
       <c r="C40" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Idaho</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.01</v>
       </c>
       <c r="C41" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C42" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>California</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="C43" t="n">
-        <v>0.62</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C44" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C45" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C46" t="n">
-        <v>0.26</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C47" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C48" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>North Dakota</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C49" t="n">
-        <v>0.66</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0.01</v>
       </c>
       <c r="C50" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="C51" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0.01</v>
       </c>
       <c r="C52" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="53">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2441</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2559</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="55">
